--- a/data/trauma-page-kidney-table.xlsx
+++ b/data/trauma-page-kidney-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymorada/Documents/GitHub/page-kidney-trauma-sr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E267E3-EAB4-EE46-B575-37CAD143CCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF586146-961E-7347-AF64-761F0C911E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17300" yWindow="760" windowWidth="17260" windowHeight="21580" xr2:uid="{B28655D6-C83C-45B0-AE30-B1D0A9B37197}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="148">
   <si>
     <t>reference</t>
   </si>
@@ -265,211 +265,205 @@
     <t>Mullins_1975</t>
   </si>
   <si>
+    <t>Murray_2010</t>
+  </si>
+  <si>
+    <t>flank pain; hematuria</t>
+  </si>
+  <si>
+    <t>Myrianthefs_2007</t>
+  </si>
+  <si>
+    <t>clonidine; captopril; propranalol</t>
+  </si>
+  <si>
+    <t>Oliveira_2003</t>
+  </si>
+  <si>
+    <t>Oliveira_2002</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Pan_2020</t>
+  </si>
+  <si>
+    <t>oligouria; abdominal pain</t>
+  </si>
+  <si>
+    <t>Scott_1976</t>
+  </si>
+  <si>
+    <t>Sedigh_2017</t>
+  </si>
+  <si>
+    <t>anuria; abdominal pain</t>
+  </si>
+  <si>
+    <t>Shome_2002</t>
+  </si>
+  <si>
+    <t>Smyth_2012</t>
+  </si>
+  <si>
+    <t>patient level</t>
+  </si>
+  <si>
+    <t>y-1</t>
+  </si>
+  <si>
+    <t>flank pain; headache</t>
+  </si>
+  <si>
+    <t>lap nephrectomy</t>
+  </si>
+  <si>
+    <t>y-2</t>
+  </si>
+  <si>
+    <t>lap evacuation; lap nephrectomy</t>
+  </si>
+  <si>
+    <t>Takahashi_2017</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Tuong_2016</t>
+  </si>
+  <si>
+    <t>congenital atrophic right kidney</t>
+  </si>
+  <si>
+    <t>abdominal pain; hematuria</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>van Ahlen_1987</t>
+  </si>
+  <si>
+    <t>GWV_2023</t>
+  </si>
+  <si>
+    <t>Koyanagawa_2024</t>
+  </si>
+  <si>
+    <t>asthma; tibial fracture; marijuana use</t>
+  </si>
+  <si>
+    <t>flank pain, vomiting, hypertension</t>
+  </si>
+  <si>
+    <t>trace blood</t>
+  </si>
+  <si>
+    <t>IR coil embolization</t>
+  </si>
+  <si>
+    <t>Lind_2024</t>
+  </si>
+  <si>
+    <t>Flank pain; nausea; syncope; hypertension; AKI</t>
+  </si>
+  <si>
+    <t>MKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR drainage; splenic vein stent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flank pain, ecchymosis </t>
+  </si>
+  <si>
+    <t>congentially absent left kidney</t>
+  </si>
+  <si>
+    <t>US drainage, fine needle aspirations x3</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flank pain, drop in Hgb, fevers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uretric stent, Abx, percutaneous drainage, nephrectomy </t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flank pain, adbominal pain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decortication, nephrectomy </t>
+  </si>
+  <si>
+    <t>renal txp (2 years prior); dm, polyneuropathy</t>
+  </si>
+  <si>
+    <t>allograft right</t>
+  </si>
+  <si>
+    <t>surgical evacuation with hematoma evacuation, drain, hemostatic agents</t>
+  </si>
+  <si>
+    <t>CT perc drain, tPA, fibrinolysis, 1uprbc, discharged on PTA anti-HTN meds, tadalafil, brompheniramine/dextromethorphen/PSE, topical docosanol</t>
+  </si>
+  <si>
+    <t>sleep apnea-induced htn (CPAP, amlodipine, HCTZ-losartan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgical evacuation/laparotomy; complete nephrectomy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdominal pain, distension, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">total nephrectomy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dm;  hx  renal/pancreas transplants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allograft, left </t>
+  </si>
+  <si>
+    <t>allograft, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renal txp (glomerulonephritis) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flank pain, palpations, headache </t>
+  </si>
+  <si>
+    <t xml:space="preserve">renal txp (chronic glomerulonephritis) </t>
+  </si>
+  <si>
+    <t>surgical evacuation, debridement, renorrhapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">headache; back pain, flank pain, fatigue </t>
+  </si>
+  <si>
+    <t>back pain, abdominal pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bilateral gerota fascia release, surgical evacuation </t>
+  </si>
+  <si>
     <t>nephrectomy</t>
   </si>
   <si>
-    <t>Murray_2010</t>
-  </si>
-  <si>
-    <t>flank pain; hematuria</t>
-  </si>
-  <si>
-    <t>Myrianthefs_2007</t>
-  </si>
-  <si>
-    <t>clonidine; captopril; propranalol</t>
-  </si>
-  <si>
-    <t>Oliveira_2003</t>
-  </si>
-  <si>
-    <t>Oliveira_2002</t>
-  </si>
-  <si>
-    <t>duplicate</t>
-  </si>
-  <si>
-    <t>Pan_2020</t>
-  </si>
-  <si>
-    <t>oligouria; abdominal pain</t>
-  </si>
-  <si>
-    <t>Scott_1976</t>
-  </si>
-  <si>
-    <t>Sedigh_2017</t>
-  </si>
-  <si>
-    <t>anuria; abdominal pain</t>
-  </si>
-  <si>
-    <t>Shome_2002</t>
-  </si>
-  <si>
-    <t>Smyth_2012</t>
-  </si>
-  <si>
-    <t>patient level</t>
-  </si>
-  <si>
-    <t>Sokhal_2018-1</t>
-  </si>
-  <si>
-    <t>y-1</t>
-  </si>
-  <si>
-    <t>flank pain; headache</t>
-  </si>
-  <si>
-    <t>lap nephrectomy</t>
-  </si>
-  <si>
-    <t>Sokhal_2018-2</t>
-  </si>
-  <si>
-    <t>y-2</t>
-  </si>
-  <si>
-    <t>lap evacuation; lap nephrectomy</t>
-  </si>
-  <si>
-    <t>Takahashi_2017</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>Tuong_2016</t>
-  </si>
-  <si>
-    <t>congenital atrophic right kidney</t>
-  </si>
-  <si>
-    <t>abdominal pain; hematuria</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>van Ahlen_1987</t>
-  </si>
-  <si>
-    <t>GWV_2023</t>
-  </si>
-  <si>
-    <t>Koyanagawa_2024</t>
-  </si>
-  <si>
-    <t>asthma; tibial fracture; marijuana use</t>
-  </si>
-  <si>
-    <t>flank pain, vomiting, hypertension</t>
-  </si>
-  <si>
-    <t>trace blood</t>
-  </si>
-  <si>
-    <t>IR coil embolization</t>
-  </si>
-  <si>
-    <t>Lind_2024</t>
-  </si>
-  <si>
-    <t>Flank pain; nausea; syncope; hypertension; AKI</t>
-  </si>
-  <si>
-    <t>MKL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR drainage; splenic vein stent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">flank pain, ecchymosis </t>
-  </si>
-  <si>
-    <t>congentially absent left kidney</t>
-  </si>
-  <si>
-    <t>US drainage, fine needle aspirations x3</t>
-  </si>
-  <si>
-    <t>20s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flank pain, drop in Hgb, fevers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uretric stent, Abx, percutaneous drainage, nephrectomy </t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right </t>
-  </si>
-  <si>
-    <t xml:space="preserve">flank pain, adbominal pain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">decortication, nephrectomy </t>
-  </si>
-  <si>
-    <t>renal txp (2 years prior); dm, polyneuropathy</t>
-  </si>
-  <si>
-    <t>allograft right</t>
-  </si>
-  <si>
-    <t>surgical evacuation with hematoma evacuation, drain, hemostatic agents</t>
-  </si>
-  <si>
-    <t>CT perc drain, tPA, fibrinolysis, 1uprbc, discharged on PTA anti-HTN meds, tadalafil, brompheniramine/dextromethorphen/PSE, topical docosanol</t>
-  </si>
-  <si>
-    <t>sleep apnea-induced htn (CPAP, amlodipine, HCTZ-losartan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surgical evacuation/laparotomy; complete nephrectomy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">abdominal pain, distension, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">total nephrectomy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dm;  hx  renal/pancreas transplants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">allograft, left </t>
-  </si>
-  <si>
-    <t>allograft, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renal txp (glomerulonephritis) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">flank pain, palpations, headache </t>
-  </si>
-  <si>
-    <t xml:space="preserve">renal txp (chronic glomerulonephritis) </t>
-  </si>
-  <si>
-    <t>surgical evacuation, debridement, renorrhapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headache; back pain, flank pain, fatigue </t>
-  </si>
-  <si>
-    <t>hematoma, methyldopa, HCTZ, propranlol, hydralazine</t>
-  </si>
-  <si>
-    <t>back pain, abdominal pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bilateral gerota fascia release, surgical evacuation </t>
+    <t>Sokhal_2018</t>
   </si>
 </sst>
 </file>
@@ -1333,13 +1327,14 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -1469,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1489,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1554,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1571,7 +1566,7 @@
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1583,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
         <v>64</v>
@@ -1601,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -1610,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1630,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1653,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H7">
         <v>0.33333333300000001</v>
@@ -1683,7 +1678,7 @@
         <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -1695,7 +1690,7 @@
         <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1721,13 +1716,13 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
@@ -1739,10 +1734,10 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R8" t="s">
         <v>32</v>
@@ -1751,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1771,7 +1766,7 @@
         <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1791,7 +1786,7 @@
         <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1814,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11">
         <v>8.2191780000000006E-3</v>
@@ -1841,10 +1836,10 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>
@@ -1856,7 +1851,7 @@
         <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1921,7 +1916,7 @@
         <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1986,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2051,7 +2046,7 @@
         <v>33</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2116,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="U15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2169,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R16" t="s">
         <v>32</v>
@@ -2181,7 +2176,7 @@
         <v>33</v>
       </c>
       <c r="U16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2246,7 +2241,7 @@
         <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2311,7 +2306,7 @@
         <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2343,7 +2338,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2358,24 +2353,24 @@
         <v>11</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
         <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="T19" t="s">
         <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2402,7 +2397,7 @@
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -2423,7 +2418,7 @@
         <v>30</v>
       </c>
       <c r="Q20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R20" t="s">
         <v>32</v>
@@ -2435,12 +2430,12 @@
         <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2467,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
         <v>35</v>
@@ -2488,7 +2483,7 @@
         <v>48</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R21" t="s">
         <v>32</v>
@@ -2500,12 +2495,12 @@
         <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2532,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -2553,7 +2548,7 @@
         <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R22" t="s">
         <v>32</v>
@@ -2565,18 +2560,18 @@
         <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
       </c>
       <c r="D23">
         <v>2002</v>
@@ -2585,12 +2580,12 @@
         <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2608,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H24">
         <v>8.3333332999999996E-2</v>
@@ -2617,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -2635,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q24" t="s">
         <v>31</v>
@@ -2650,12 +2645,12 @@
         <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -2670,12 +2665,12 @@
         <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2693,7 +2688,7 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H26">
         <v>4.1666666999999998E-2</v>
@@ -2702,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s">
         <v>35</v>
@@ -2720,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q26" t="s">
         <v>31</v>
@@ -2735,12 +2730,12 @@
         <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -2755,18 +2750,18 @@
         <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
       </c>
       <c r="D28">
         <v>2012</v>
@@ -2775,18 +2770,18 @@
         <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>2018</v>
@@ -2807,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
@@ -2828,7 +2823,7 @@
         <v>30</v>
       </c>
       <c r="Q29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R29" t="s">
         <v>32</v>
@@ -2840,18 +2835,18 @@
         <v>33</v>
       </c>
       <c r="U29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>2018</v>
@@ -2872,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -2893,7 +2888,7 @@
         <v>48</v>
       </c>
       <c r="Q30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R30" t="s">
         <v>32</v>
@@ -2905,12 +2900,12 @@
         <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2928,7 +2923,7 @@
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H31">
         <v>1.9178081999999999E-2</v>
@@ -2946,7 +2941,7 @@
         <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N31">
         <v>12</v>
@@ -2955,7 +2950,7 @@
         <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q31" t="s">
         <v>55</v>
@@ -2970,12 +2965,12 @@
         <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2993,7 +2988,7 @@
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>1.6438356000000001E-2</v>
@@ -3002,7 +2997,7 @@
         <v>46</v>
       </c>
       <c r="J32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
@@ -3011,7 +3006,7 @@
         <v>64</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N32" t="s">
         <v>28</v>
@@ -3023,7 +3018,7 @@
         <v>30</v>
       </c>
       <c r="Q32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R32" t="s">
         <v>32</v>
@@ -3035,18 +3030,18 @@
         <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>1987</v>
@@ -3055,12 +3050,12 @@
         <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -3087,7 +3082,7 @@
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3105,7 +3100,7 @@
         <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R34" t="s">
         <v>32</v>
@@ -3117,12 +3112,12 @@
         <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3140,7 +3135,7 @@
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H35">
         <v>3.0000000000000001E-3</v>
@@ -3149,13 +3144,13 @@
         <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s">
         <v>28</v>
@@ -3170,7 +3165,7 @@
         <v>48</v>
       </c>
       <c r="Q35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R35" t="s">
         <v>32</v>
@@ -3182,12 +3177,12 @@
         <v>33</v>
       </c>
       <c r="U35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -3205,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H36">
         <v>3.0000000000000001E-3</v>
@@ -3214,7 +3209,7 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -3235,7 +3230,7 @@
         <v>30</v>
       </c>
       <c r="Q36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R36" t="s">
         <v>32</v>
@@ -3247,7 +3242,7 @@
         <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trauma-page-kidney-table.xlsx
+++ b/data/trauma-page-kidney-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymorada/Documents/GitHub/page-kidney-trauma-sr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF586146-961E-7347-AF64-761F0C911E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69146624-89F4-8D4F-B17F-868257D2696B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17300" yWindow="760" windowWidth="17260" windowHeight="21580" xr2:uid="{B28655D6-C83C-45B0-AE30-B1D0A9B37197}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t>van Ahlen_1987</t>
   </si>
   <si>
-    <t>GWV_2023</t>
-  </si>
-  <si>
     <t>Koyanagawa_2024</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Sokhal_2018</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1484,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1549,7 +1549,7 @@
         <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1578,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
         <v>64</v>
@@ -1596,7 +1596,7 @@
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -1605,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7">
         <v>0.33333333300000001</v>
@@ -1678,7 +1678,7 @@
         <v>48</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R7" t="s">
         <v>32</v>
@@ -1690,7 +1690,7 @@
         <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1716,13 +1716,13 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
@@ -1734,10 +1734,10 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R8" t="s">
         <v>32</v>
@@ -1746,7 +1746,7 @@
         <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1786,7 +1786,7 @@
         <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11">
         <v>8.2191780000000006E-3</v>
@@ -1836,10 +1836,10 @@
         <v>29</v>
       </c>
       <c r="P11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" t="s">
         <v>129</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>130</v>
       </c>
       <c r="R11" t="s">
         <v>32</v>
@@ -1851,7 +1851,7 @@
         <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
         <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>33</v>
       </c>
       <c r="U14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2111,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="U15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R16" t="s">
         <v>32</v>
@@ -2176,7 +2176,7 @@
         <v>33</v>
       </c>
       <c r="U16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>33</v>
       </c>
       <c r="U17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>33</v>
       </c>
       <c r="U18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -2359,13 +2359,13 @@
         <v>48</v>
       </c>
       <c r="Q19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T19" t="s">
         <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2418,7 +2418,7 @@
         <v>30</v>
       </c>
       <c r="Q20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R20" t="s">
         <v>32</v>
@@ -2430,7 +2430,7 @@
         <v>33</v>
       </c>
       <c r="U20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
         <v>35</v>
@@ -2495,7 +2495,7 @@
         <v>33</v>
       </c>
       <c r="U21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2527,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -2548,7 +2548,7 @@
         <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R22" t="s">
         <v>32</v>
@@ -2560,7 +2560,7 @@
         <v>33</v>
       </c>
       <c r="U22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2580,7 +2580,7 @@
         <v>33</v>
       </c>
       <c r="U23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -2603,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24">
         <v>8.3333332999999996E-2</v>
@@ -2630,7 +2630,7 @@
         <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q24" t="s">
         <v>31</v>
@@ -2645,7 +2645,7 @@
         <v>33</v>
       </c>
       <c r="U24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -2665,7 +2665,7 @@
         <v>33</v>
       </c>
       <c r="U25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26">
         <v>4.1666666999999998E-2</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q26" t="s">
         <v>31</v>
@@ -2730,7 +2730,7 @@
         <v>33</v>
       </c>
       <c r="U26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>33</v>
       </c>
       <c r="U27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -2770,12 +2770,12 @@
         <v>33</v>
       </c>
       <c r="U28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2835,12 +2835,12 @@
         <v>33</v>
       </c>
       <c r="U29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2867,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -2900,7 +2900,7 @@
         <v>33</v>
       </c>
       <c r="U30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31">
         <v>1.9178081999999999E-2</v>
@@ -2950,7 +2950,7 @@
         <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q31" t="s">
         <v>55</v>
@@ -2965,7 +2965,7 @@
         <v>33</v>
       </c>
       <c r="U31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
         <v>30</v>
       </c>
       <c r="Q32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R32" t="s">
         <v>32</v>
@@ -3030,7 +3030,7 @@
         <v>33</v>
       </c>
       <c r="U32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3050,12 +3050,12 @@
         <v>33</v>
       </c>
       <c r="U33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -3082,7 +3082,7 @@
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3100,7 +3100,7 @@
         <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R34" t="s">
         <v>32</v>
@@ -3112,12 +3112,12 @@
         <v>33</v>
       </c>
       <c r="U34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3135,7 +3135,7 @@
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H35">
         <v>3.0000000000000001E-3</v>
@@ -3144,13 +3144,13 @@
         <v>46</v>
       </c>
       <c r="J35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
         <v>111</v>
-      </c>
-      <c r="K35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" t="s">
-        <v>112</v>
       </c>
       <c r="M35" t="s">
         <v>28</v>
@@ -3165,7 +3165,7 @@
         <v>48</v>
       </c>
       <c r="Q35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R35" t="s">
         <v>32</v>
@@ -3177,12 +3177,12 @@
         <v>33</v>
       </c>
       <c r="U35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -3200,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36">
         <v>3.0000000000000001E-3</v>
@@ -3209,7 +3209,7 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -3230,7 +3230,7 @@
         <v>30</v>
       </c>
       <c r="Q36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R36" t="s">
         <v>32</v>
@@ -3242,7 +3242,7 @@
         <v>33</v>
       </c>
       <c r="U36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
